--- a/data/trans_dic/P15_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares no convivientes con COVID-19</t>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>23,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,39</t>
+          <t>0,0; 14,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,81</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 24,86</t>
+          <t>5,57; 29,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,91; 33,53</t>
+          <t>6,9; 32,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,0</t>
+          <t>0,0; 7,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 11,29</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 20,05</t>
+          <t>4,08; 20,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 29,87</t>
+          <t>16,45; 40,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,76</t>
+          <t>0,79; 8,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,91</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 19,14</t>
+          <t>7,35; 21,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 28,47</t>
+          <t>14,45; 32,83</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>32,01%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 11,47</t>
+          <t>5,02; 14,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,65</t>
+          <t>1,54; 7,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 23,78</t>
+          <t>15,03; 28,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,45; 34,06</t>
+          <t>25,76; 43,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 12,6</t>
+          <t>5,23; 13,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,2</t>
+          <t>2,37; 8,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 21,8</t>
+          <t>12,16; 23,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,97; 37,83</t>
+          <t>23,36; 36,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,48</t>
+          <t>6,21; 12,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,98</t>
+          <t>2,52; 7,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 21,42</t>
+          <t>15,0; 23,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 33,82</t>
+          <t>27,23; 38,21</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,18</t>
+          <t>3,35; 12,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,44</t>
+          <t>3,82; 13,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 31,21</t>
+          <t>16,44; 32,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,51; 41,98</t>
+          <t>23,76; 41,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 21,52</t>
+          <t>10,07; 21,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,77</t>
+          <t>8,3; 19,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 31,44</t>
+          <t>16,18; 28,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,88; 42,94</t>
+          <t>28,11; 42,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 16,98</t>
+          <t>8,31; 15,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,08</t>
+          <t>7,35; 14,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 29,38</t>
+          <t>18,34; 27,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 39,71</t>
+          <t>27,79; 38,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 33,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 34,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 32,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,51%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,4%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 10,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 7,77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 26,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25,65; 37,35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 13,27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 11,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 21,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,04; 36,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 11,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 8,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 22,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,12; 35,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16617</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21338</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2206</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33600</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6199</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28929</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54938</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14580</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12563</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5876; 30846</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7871; 37198</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8995</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11361</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4718; 24120</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20138; 50005</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1745; 18012</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15798</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16232; 46714</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34171; 77650</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31834</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16905</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78186</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>136070</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34631</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22669</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>64022</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>111876</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66464</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39574</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>142208</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>247946</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18382; 51594</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6635; 32496</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56564; 107180</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>102929; 171860</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20435; 53631</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11016; 41128</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46306; 87869</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>87633; 137159</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46984; 94456</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22508; 64005</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>113536; 178825</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>210988; 296025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20412</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24907</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67669</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>88079</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53680</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56256</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>75103</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113601</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>74092</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81163</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>142771</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>201679</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9567; 36554</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12711; 44879</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>46413; 90761</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65439; 114615</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36211; 77165</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35549; 82078</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55755; 98700</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92034; 139840</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>53640; 101721</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>55985; 110844</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>114993; 172705</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>167528; 234557</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56685</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>44301</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>162473</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>245486</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>90070</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>81131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>151436</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>259077</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>146755</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>125433</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>313908</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>504564</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>35758; 82549</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26988; 69278</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>129578; 201945</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>202370; 294718</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63662; 115181</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56675; 115099</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>118851; 183387</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>223111; 299946</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>114861; 185198</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>92573; 166087</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>272593; 364929</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>453898; 566420</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>